--- a/examples/plan-iteration/artifact/script/plan-iteration.xlsx
+++ b/examples/plan-iteration/artifact/script/plan-iteration.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3066" uniqueCount="515">
   <si>
     <t>description</t>
   </si>
@@ -1604,6 +1604,12 @@
   </si>
   <si>
     <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1617,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="91" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1991,8 +1997,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="88">
+  <fills count="148">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2487,8 +2695,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -3372,6 +3920,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3379,7 +4491,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="117">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3604,52 +4716,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="69" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="69" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="75" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="75" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="78" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="78" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="90" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="93" fontId="61" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="96" fontId="62" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="99" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="102" fontId="65" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="105" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="108" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="111" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="111" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="114" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="117" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="120" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="123" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="126" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="129" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="132" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="135" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="138" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="141" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="141" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="129" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="144" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="129" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="147" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3974,7 +5182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5666,126 +6874,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>150</v>
+        <v>513</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>386</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>151</v>
+        <v>514</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>152</v>
+        <v>386</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>447</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>165</v>
+        <v>447</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>171</v>
       </c>
     </row>

--- a/examples/plan-iteration/artifact/script/plan-iteration.xlsx
+++ b/examples/plan-iteration/artifact/script/plan-iteration.xlsx
@@ -30,27 +30,28 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3066" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4122" uniqueCount="522">
   <si>
     <t>description</t>
   </si>
@@ -1610,6 +1611,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1639,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="91" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2199,8 +2221,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="148">
+  <fills count="208">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3035,8 +3259,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4484,6 +5048,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4491,7 +5619,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="149">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4812,52 +5940,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="117" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="120" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="120" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="123" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="123" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="126" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="126" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="129" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="129" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="132" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="135" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="135" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="138" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="138" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="141" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="141" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="141" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="141" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="129" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="129" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="144" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="129" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="129" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="147" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="150" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="153" fontId="93" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="156" fontId="94" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="159" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="97" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="165" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="168" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="171" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="171" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="174" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="180" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="183" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="186" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="189" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="195" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="198" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="201" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="201" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5182,7 +6406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5234,51 +6458,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>515</v>
+      </c>
+      <c r="O1" t="s">
         <v>481</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>197</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>241</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>54</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>399</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>415</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>416</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>360</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>400</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>417</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5323,51 +6550,54 @@
         <v>438</v>
       </c>
       <c r="N2" t="s">
+        <v>516</v>
+      </c>
+      <c r="O2" t="s">
         <v>492</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>420</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>433</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>255</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>219</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>401</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>422</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>423</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>384</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>410</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>172</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>177</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>184</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>435</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5412,45 +6642,48 @@
         <v>87</v>
       </c>
       <c r="N3" t="s">
+        <v>517</v>
+      </c>
+      <c r="O3" t="s">
         <v>493</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>434</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>242</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>220</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>402</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>424</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>385</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>411</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>99</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>173</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>178</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>367</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>185</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5492,45 +6725,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>518</v>
+      </c>
+      <c r="O4" t="s">
         <v>494</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>243</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>221</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>403</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>425</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>361</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>412</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>357</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>174</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>179</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>185</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>427</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5565,40 +6801,43 @@
       <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>244</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>222</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>404</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>426</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>362</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>358</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>175</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>180</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>186</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>428</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5630,37 +6869,40 @@
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>245</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>394</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>405</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>364</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>100</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>448</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>181</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>187</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>429</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5686,37 +6928,40 @@
       <c r="M7" t="s">
         <v>317</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>246</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>421</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>406</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>363</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>101</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>449</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>182</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>188</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>430</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>234</v>
       </c>
     </row>
@@ -5742,34 +6987,34 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>247</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>407</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>365</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>102</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>176</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>183</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>189</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>431</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5795,25 +7040,25 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>248</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>408</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>366</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>210</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>190</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5836,22 +7081,22 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>440</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>249</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>409</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>259</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>191</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>478</v>
       </c>
     </row>
@@ -5874,19 +7119,19 @@
       <c r="M11" t="s">
         <v>475</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>250</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>260</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>261</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>504</v>
       </c>
     </row>
@@ -5909,19 +7154,19 @@
       <c r="M12" t="s">
         <v>439</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>251</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>192</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>505</v>
       </c>
     </row>
@@ -5944,25 +7189,25 @@
       <c r="M13" t="s">
         <v>476</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>95</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>256</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>329</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>193</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>481</v>
+        <v>515</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -5979,25 +7224,25 @@
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>96</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>252</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>104</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>194</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>481</v>
       </c>
       <c r="E15" t="s">
         <v>60</v>
@@ -6011,25 +7256,25 @@
       <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>495</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>253</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>105</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>195</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
         <v>388</v>
@@ -6043,25 +7288,25 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>496</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>254</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>76</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>196</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>241</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>389</v>
@@ -6072,19 +7317,19 @@
       <c r="K17" t="s">
         <v>83</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>497</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>470</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>241</v>
       </c>
       <c r="E18" t="s">
         <v>418</v>
@@ -6095,16 +7340,16 @@
       <c r="K18" t="s">
         <v>466</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>106</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>399</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
         <v>61</v>
@@ -6115,16 +7360,16 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>107</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="E20" t="s">
         <v>62</v>
@@ -6135,16 +7380,16 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>108</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E21" t="s">
         <v>258</v>
@@ -6155,16 +7400,16 @@
       <c r="K21" t="s">
         <v>383</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>109</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>
@@ -6175,13 +7420,13 @@
       <c r="K22" t="s">
         <v>474</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="E23" t="s">
         <v>324</v>
@@ -6192,13 +7437,13 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>400</v>
       </c>
       <c r="E24" t="s">
         <v>64</v>
@@ -6209,13 +7454,13 @@
       <c r="K24" t="s">
         <v>395</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>452</v>
@@ -6226,13 +7471,13 @@
       <c r="K25" t="s">
         <v>86</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>227</v>
@@ -6243,13 +7488,13 @@
       <c r="K26" t="s">
         <v>437</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>228</v>
@@ -6260,13 +7505,13 @@
       <c r="K27" t="s">
         <v>45</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>417</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>472</v>
@@ -6277,13 +7522,13 @@
       <c r="K28" t="s">
         <v>46</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>229</v>
+        <v>417</v>
       </c>
       <c r="E29" t="s">
         <v>473</v>
@@ -6291,18 +7536,21 @@
       <c r="G29" t="s">
         <v>286</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>229</v>
+      </c>
       <c r="E30" t="s">
         <v>419</v>
       </c>
       <c r="G30" t="s">
         <v>218</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6313,7 +7561,7 @@
       <c r="G31" t="s">
         <v>277</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6324,7 +7572,7 @@
       <c r="G32" t="s">
         <v>287</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6335,7 +7583,7 @@
       <c r="G33" t="s">
         <v>511</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6346,7 +7594,7 @@
       <c r="G34" t="s">
         <v>262</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6357,7 +7605,7 @@
       <c r="G35" t="s">
         <v>333</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>211</v>
       </c>
     </row>
@@ -6368,7 +7616,7 @@
       <c r="G36" t="s">
         <v>309</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6379,7 +7627,7 @@
       <c r="G37" t="s">
         <v>263</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>341</v>
       </c>
     </row>
@@ -6390,7 +7638,7 @@
       <c r="G38" t="s">
         <v>310</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>441</v>
       </c>
     </row>
@@ -6398,7 +7646,7 @@
       <c r="G39" t="s">
         <v>269</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>396</v>
       </c>
     </row>
@@ -6406,7 +7654,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6414,7 +7662,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6422,7 +7670,7 @@
       <c r="G42" t="s">
         <v>291</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6430,7 +7678,7 @@
       <c r="G43" t="s">
         <v>302</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6438,7 +7686,7 @@
       <c r="G44" t="s">
         <v>303</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6446,7 +7694,7 @@
       <c r="G45" t="s">
         <v>346</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6454,7 +7702,7 @@
       <c r="G46" t="s">
         <v>345</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>442</v>
       </c>
     </row>
@@ -6462,7 +7710,7 @@
       <c r="G47" t="s">
         <v>212</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>214</v>
       </c>
     </row>
@@ -6470,7 +7718,7 @@
       <c r="G48" t="s">
         <v>323</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6478,7 +7726,7 @@
       <c r="G49" t="s">
         <v>342</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6486,7 +7734,7 @@
       <c r="G50" t="s">
         <v>371</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6494,7 +7742,7 @@
       <c r="G51" t="s">
         <v>304</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6502,7 +7750,7 @@
       <c r="G52" t="s">
         <v>359</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>499</v>
       </c>
     </row>
@@ -6510,7 +7758,7 @@
       <c r="G53" t="s">
         <v>334</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>467</v>
       </c>
     </row>
@@ -6518,7 +7766,7 @@
       <c r="G54" t="s">
         <v>270</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>132</v>
       </c>
     </row>
@@ -6526,7 +7774,7 @@
       <c r="G55" t="s">
         <v>294</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>349</v>
       </c>
     </row>
@@ -6534,7 +7782,7 @@
       <c r="G56" t="s">
         <v>295</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>468</v>
       </c>
     </row>
@@ -6542,7 +7790,7 @@
       <c r="G57" t="s">
         <v>296</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6550,7 +7798,7 @@
       <c r="G58" t="s">
         <v>305</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6558,7 +7806,7 @@
       <c r="G59" t="s">
         <v>314</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6566,7 +7814,7 @@
       <c r="G60" t="s">
         <v>340</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6574,7 +7822,7 @@
       <c r="G61" t="s">
         <v>311</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>137</v>
       </c>
     </row>
@@ -6582,7 +7830,7 @@
       <c r="G62" t="s">
         <v>312</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6590,7 +7838,7 @@
       <c r="G63" t="s">
         <v>372</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6598,7 +7846,7 @@
       <c r="G64" t="s">
         <v>373</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>443</v>
       </c>
     </row>
@@ -6606,7 +7854,7 @@
       <c r="G65" t="s">
         <v>348</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>477</v>
       </c>
     </row>
@@ -6614,7 +7862,7 @@
       <c r="G66" t="s">
         <v>315</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>215</v>
       </c>
     </row>
@@ -6622,7 +7870,7 @@
       <c r="G67" t="s">
         <v>271</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>392</v>
       </c>
     </row>
@@ -6630,7 +7878,7 @@
       <c r="G68" t="s">
         <v>356</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>444</v>
       </c>
     </row>
@@ -6638,7 +7886,7 @@
       <c r="G69" t="s">
         <v>316</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6646,7 +7894,7 @@
       <c r="G70" t="s">
         <v>413</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6654,7 +7902,7 @@
       <c r="G71" t="s">
         <v>306</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>142</v>
       </c>
     </row>
@@ -6662,7 +7910,7 @@
       <c r="G72" t="s">
         <v>414</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6670,7 +7918,7 @@
       <c r="G73" t="s">
         <v>264</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6678,7 +7926,7 @@
       <c r="G74" t="s">
         <v>512</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6686,7 +7934,7 @@
       <c r="G75" t="s">
         <v>347</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>456</v>
       </c>
     </row>
@@ -6694,7 +7942,7 @@
       <c r="G76" t="s">
         <v>282</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>469</v>
       </c>
     </row>
@@ -6702,7 +7950,7 @@
       <c r="G77" t="s">
         <v>288</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>144</v>
       </c>
     </row>
@@ -6710,7 +7958,7 @@
       <c r="G78" t="s">
         <v>293</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6718,7 +7966,7 @@
       <c r="G79" t="s">
         <v>432</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6726,7 +7974,7 @@
       <c r="G80" t="s">
         <v>335</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>500</v>
       </c>
     </row>
@@ -6734,7 +7982,7 @@
       <c r="G81" t="s">
         <v>272</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6742,7 +7990,7 @@
       <c r="G82" t="s">
         <v>283</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6750,7 +7998,7 @@
       <c r="G83" t="s">
         <v>289</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6758,7 +8006,7 @@
       <c r="G84" t="s">
         <v>278</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6766,7 +8014,7 @@
       <c r="G85" t="s">
         <v>273</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6774,7 +8022,7 @@
       <c r="G86" t="s">
         <v>290</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>457</v>
       </c>
     </row>
@@ -6782,7 +8030,7 @@
       <c r="G87" t="s">
         <v>274</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6790,7 +8038,7 @@
       <c r="G88" t="s">
         <v>275</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6798,7 +8046,7 @@
       <c r="G89" t="s">
         <v>307</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6806,7 +8054,7 @@
       <c r="G90" t="s">
         <v>313</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>149</v>
       </c>
     </row>
@@ -6814,7 +8062,7 @@
       <c r="G91" t="s">
         <v>297</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6822,7 +8070,7 @@
       <c r="G92" t="s">
         <v>343</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>445</v>
       </c>
     </row>
@@ -6830,7 +8078,7 @@
       <c r="G93" t="s">
         <v>279</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>446</v>
       </c>
     </row>
@@ -6838,172 +8086,172 @@
       <c r="G94" t="s">
         <v>280</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>171</v>
       </c>
     </row>

--- a/examples/plan-iteration/artifact/script/plan-iteration.xlsx
+++ b/examples/plan-iteration/artifact/script/plan-iteration.xlsx
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -51,7 +51,7 @@
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4122" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6786" uniqueCount="529">
   <si>
     <t>description</t>
   </si>
@@ -1632,6 +1632,27 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>exportExcel(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
   </si>
 </sst>
 </file>
@@ -1639,7 +1660,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="123" x14ac:knownFonts="1">
+  <fonts count="203" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2423,8 +2444,513 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="208">
+  <fills count="358">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3599,8 +4125,858 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="339">
     <border>
       <left/>
       <right/>
@@ -5612,6 +6988,1416 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5619,7 +8405,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="229">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6036,52 +8822,292 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="180" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="180" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="183" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="183" fontId="109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="186" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="186" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="189" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="189" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="113" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="195" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="195" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="198" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="198" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="201" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="201" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="201" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="201" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="210" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="213" fontId="125" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="216" fontId="126" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="219" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="222" fontId="129" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="225" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="228" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="231" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="231" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="237" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="240" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="243" fontId="141" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="246" fontId="142" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="249" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="252" fontId="145" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="255" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="258" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="261" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="261" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="249" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="264" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="249" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="267" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="270" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="273" fontId="157" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="276" fontId="158" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="279" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="282" fontId="161" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="285" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="288" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="291" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="291" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="279" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="294" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="279" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="300" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="303" fontId="173" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="306" fontId="174" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="309" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="177" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="315" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="318" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="321" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="321" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="309" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="309" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="330" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="333" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="336" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="339" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="345" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="348" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="351" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="351" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="357" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6802,7 +9828,7 @@
         <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -6870,7 +9896,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -6929,7 +9955,7 @@
         <v>317</v>
       </c>
       <c r="N7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -6987,6 +10013,9 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
+      <c r="N8" t="s">
+        <v>524</v>
+      </c>
       <c r="Q8" t="s">
         <v>92</v>
       </c>
@@ -7040,6 +10069,9 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
+      <c r="N9" t="s">
+        <v>527</v>
+      </c>
       <c r="Q9" t="s">
         <v>93</v>
       </c>
@@ -7081,6 +10113,9 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
+      <c r="N10" t="s">
+        <v>519</v>
+      </c>
       <c r="Q10" t="s">
         <v>440</v>
       </c>
@@ -7119,6 +10154,9 @@
       <c r="M11" t="s">
         <v>475</v>
       </c>
+      <c r="N11" t="s">
+        <v>520</v>
+      </c>
       <c r="Q11" t="s">
         <v>94</v>
       </c>
@@ -7154,6 +10192,9 @@
       <c r="M12" t="s">
         <v>439</v>
       </c>
+      <c r="N12" t="s">
+        <v>521</v>
+      </c>
       <c r="Q12" t="s">
         <v>41</v>
       </c>
@@ -7469,7 +10510,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>86</v>
+        <v>525</v>
       </c>
       <c r="Y25" t="s">
         <v>113</v>
@@ -7486,7 +10527,7 @@
         <v>284</v>
       </c>
       <c r="K26" t="s">
-        <v>437</v>
+        <v>86</v>
       </c>
       <c r="Y26" t="s">
         <v>114</v>
@@ -7503,7 +10544,7 @@
         <v>268</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>437</v>
       </c>
       <c r="Y27" t="s">
         <v>115</v>
@@ -7520,7 +10561,7 @@
         <v>285</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s">
         <v>330</v>
@@ -7535,6 +10576,9 @@
       </c>
       <c r="G29" t="s">
         <v>286</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
       </c>
       <c r="Y29" t="s">
         <v>116</v>

--- a/examples/plan-iteration/artifact/script/plan-iteration.xlsx
+++ b/examples/plan-iteration/artifact/script/plan-iteration.xlsx
@@ -49,7 +49,7 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6786" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7321" uniqueCount="530">
   <si>
     <t>description</t>
   </si>
@@ -1653,6 +1653,9 @@
   </si>
   <si>
     <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1663,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="203" x14ac:knownFonts="1">
+  <fonts count="219" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2949,8 +2952,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="358">
+  <fills count="388">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4975,8 +5079,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="339">
+  <borders count="367">
     <border>
       <left/>
       <right/>
@@ -8398,6 +8672,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8405,7 +8961,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="245">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9062,52 +9618,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="330" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="330" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="333" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="333" fontId="189" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="336" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="336" fontId="190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="339" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="339" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="345" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="345" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="348" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="348" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="351" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="351" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="351" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="351" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="357" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="357" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="360" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="363" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="366" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="369" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="372" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="375" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="378" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="381" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="381" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="384" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="387" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9638,7 +10242,7 @@
         <v>460</v>
       </c>
       <c r="D3" t="s">
-        <v>483</v>
+        <v>529</v>
       </c>
       <c r="E3" t="s">
         <v>461</v>
@@ -9721,7 +10325,7 @@
         <v>377</v>
       </c>
       <c r="D4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -9804,7 +10408,7 @@
         <v>378</v>
       </c>
       <c r="D5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E5" t="s">
         <v>462</v>
@@ -9873,6 +10477,9 @@
       </c>
       <c r="B6" t="s">
         <v>379</v>
+      </c>
+      <c r="D6" t="s">
+        <v>485</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>

--- a/examples/plan-iteration/artifact/script/plan-iteration.xlsx
+++ b/examples/plan-iteration/artifact/script/plan-iteration.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7321" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8391" uniqueCount="531">
   <si>
     <t>description</t>
   </si>
@@ -1656,6 +1656,9 @@
   </si>
   <si>
     <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
   </si>
 </sst>
 </file>
@@ -1663,7 +1666,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="219" x14ac:knownFonts="1">
+  <fonts count="251" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3053,8 +3056,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="388">
+  <fills count="448">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5249,8 +5454,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="367">
+  <borders count="423">
     <border>
       <left/>
       <right/>
@@ -8954,6 +9499,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8961,7 +10070,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="277">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9666,52 +10775,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="357" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="360" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="360" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="363" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="363" fontId="205" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="366" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="366" fontId="206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="369" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="369" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="372" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="372" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="375" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="375" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="378" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="378" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="381" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="381" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="381" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="381" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="384" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="384" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="387" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="387" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="390" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="393" fontId="221" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="396" fontId="222" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="399" fontId="223" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="402" fontId="225" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="405" fontId="227" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="408" fontId="228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="411" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="411" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="399" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="414" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="399" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="417" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="420" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="423" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="426" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="429" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="435" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="438" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="441" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="441" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="429" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="444" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="429" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11117,7 +12322,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="Y25" t="s">
         <v>113</v>

--- a/examples/plan-iteration/artifact/script/plan-iteration.xlsx
+++ b/examples/plan-iteration/artifact/script/plan-iteration.xlsx
@@ -19,17 +19,17 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,16 +42,17 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8391" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10595" uniqueCount="549">
   <si>
     <t>description</t>
   </si>
@@ -1659,6 +1660,60 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
@@ -1666,7 +1721,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="251" x14ac:knownFonts="1">
+  <fonts count="315" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3258,8 +3313,412 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="448">
+  <fills count="556">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5794,8 +6253,620 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="423">
+  <borders count="551">
     <border>
       <left/>
       <right/>
@@ -10063,6 +11134,1310 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10070,7 +12445,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="341">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10871,52 +13246,244 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="417" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="420" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="420" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="423" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="423" fontId="237" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="426" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="426" fontId="238" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="429" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="429" fontId="239" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="435" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="435" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="438" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="438" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="441" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="441" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="441" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="441" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="429" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="429" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="444" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="444" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="429" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="429" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="450" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="453" fontId="253" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="456" fontId="254" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="459" fontId="255" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="256" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="257" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="258" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="465" fontId="259" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="456" fontId="260" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="454" fillId="468" fontId="261" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="454" fillId="468" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="471" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="477" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="268" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="480" fontId="269" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="483" fontId="270" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="486" fontId="271" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="273" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="274" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="492" fontId="275" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="483" fontId="276" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="495" fontId="277" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="495" fontId="278" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="498" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="504" fontId="283" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="284" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="507" fontId="285" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="510" fontId="286" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="513" fontId="287" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="288" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="289" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="290" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="510" fillId="519" fontId="291" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="510" fontId="292" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="522" fontId="293" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="522" fontId="294" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="525" fontId="296" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="531" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="534" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="537" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="540" borderId="538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="546" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="537" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="549" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="549" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="552" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11241,7 +13808,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11326,21 +13893,24 @@
         <v>400</v>
       </c>
       <c r="Y1" t="s">
+        <v>544</v>
+      </c>
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>417</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>229</v>
       </c>
     </row>
@@ -11418,21 +13988,24 @@
         <v>410</v>
       </c>
       <c r="Y2" t="s">
+        <v>546</v>
+      </c>
+      <c r="Z2" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>172</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>435</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>503</v>
       </c>
     </row>
@@ -11503,22 +14076,22 @@
       <c r="X3" t="s">
         <v>411</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>99</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>173</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>367</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>185</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -11586,22 +14159,22 @@
       <c r="X4" t="s">
         <v>412</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>357</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>174</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>185</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>427</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -11627,6 +14200,9 @@
       <c r="H5" t="s">
         <v>463</v>
       </c>
+      <c r="I5" t="s">
+        <v>533</v>
+      </c>
       <c r="J5" t="s">
         <v>354</v>
       </c>
@@ -11657,22 +14233,22 @@
       <c r="W5" t="s">
         <v>362</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>358</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>175</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>186</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>428</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -11725,22 +14301,22 @@
       <c r="W6" t="s">
         <v>364</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>100</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>448</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>187</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>429</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -11760,6 +14336,9 @@
       <c r="H7" t="s">
         <v>450</v>
       </c>
+      <c r="J7" t="s">
+        <v>534</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -11784,23 +14363,23 @@
       <c r="W7" t="s">
         <v>363</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>101</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>449</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>188</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>430</v>
       </c>
-      <c r="AD7" t="s">
-        <v>234</v>
+      <c r="AE7" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="8">
@@ -11840,23 +14419,23 @@
       <c r="W8" t="s">
         <v>365</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>102</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>176</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>183</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>189</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>431</v>
       </c>
-      <c r="AD8" t="s">
-        <v>235</v>
+      <c r="AE8" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="9">
@@ -11896,14 +14475,14 @@
       <c r="W9" t="s">
         <v>366</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>210</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>190</v>
       </c>
-      <c r="AD9" t="s">
-        <v>236</v>
+      <c r="AE9" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="10">
@@ -11937,14 +14516,14 @@
       <c r="T10" t="s">
         <v>409</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>259</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>191</v>
       </c>
-      <c r="AD10" t="s">
-        <v>478</v>
+      <c r="AE10" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="11">
@@ -11975,14 +14554,14 @@
       <c r="R11" t="s">
         <v>250</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>260</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>261</v>
       </c>
-      <c r="AD11" t="s">
-        <v>504</v>
+      <c r="AE11" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="12">
@@ -12002,7 +14581,7 @@
         <v>393</v>
       </c>
       <c r="M12" t="s">
-        <v>439</v>
+        <v>535</v>
       </c>
       <c r="N12" t="s">
         <v>521</v>
@@ -12013,14 +14592,14 @@
       <c r="R12" t="s">
         <v>251</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>103</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>192</v>
       </c>
-      <c r="AD12" t="s">
-        <v>505</v>
+      <c r="AE12" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="13">
@@ -12040,7 +14619,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="Q13" t="s">
         <v>95</v>
@@ -12048,14 +14627,14 @@
       <c r="R13" t="s">
         <v>256</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>329</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>193</v>
       </c>
-      <c r="AD13" t="s">
-        <v>506</v>
+      <c r="AE13" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="14">
@@ -12075,7 +14654,7 @@
         <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>476</v>
       </c>
       <c r="Q14" t="s">
         <v>96</v>
@@ -12083,14 +14662,14 @@
       <c r="R14" t="s">
         <v>252</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>104</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>194</v>
       </c>
-      <c r="AD14" t="s">
-        <v>507</v>
+      <c r="AE14" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="15">
@@ -12107,7 +14686,7 @@
         <v>491</v>
       </c>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" t="s">
         <v>495</v>
@@ -12115,14 +14694,14 @@
       <c r="R15" t="s">
         <v>253</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>105</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>195</v>
       </c>
-      <c r="AD15" t="s">
-        <v>479</v>
+      <c r="AE15" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="16">
@@ -12139,7 +14718,7 @@
         <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q16" t="s">
         <v>496</v>
@@ -12147,14 +14726,14 @@
       <c r="R16" t="s">
         <v>254</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>76</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>196</v>
       </c>
-      <c r="AD16" t="s">
-        <v>508</v>
+      <c r="AE16" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="17">
@@ -12170,14 +14749,17 @@
       <c r="K17" t="s">
         <v>83</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z17" t="s">
         <v>497</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>470</v>
       </c>
-      <c r="AD17" t="s">
-        <v>509</v>
+      <c r="AE17" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="18">
@@ -12193,11 +14775,11 @@
       <c r="K18" t="s">
         <v>466</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>106</v>
       </c>
-      <c r="AD18" t="s">
-        <v>510</v>
+      <c r="AE18" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="19">
@@ -12213,11 +14795,11 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>107</v>
       </c>
-      <c r="AD19" t="s">
-        <v>237</v>
+      <c r="AE19" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="20">
@@ -12233,11 +14815,11 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>108</v>
       </c>
-      <c r="AD20" t="s">
-        <v>238</v>
+      <c r="AE20" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="21">
@@ -12253,11 +14835,11 @@
       <c r="K21" t="s">
         <v>383</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>109</v>
       </c>
-      <c r="AD21" t="s">
-        <v>239</v>
+      <c r="AE21" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="22">
@@ -12265,7 +14847,7 @@
         <v>416</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>545</v>
       </c>
       <c r="G22" t="s">
         <v>301</v>
@@ -12273,8 +14855,11 @@
       <c r="K22" t="s">
         <v>474</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>498</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="23">
@@ -12282,7 +14867,7 @@
         <v>360</v>
       </c>
       <c r="E23" t="s">
-        <v>324</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
         <v>292</v>
@@ -12290,8 +14875,11 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>111</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="24">
@@ -12299,7 +14887,7 @@
         <v>400</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>324</v>
       </c>
       <c r="G24" t="s">
         <v>281</v>
@@ -12307,16 +14895,19 @@
       <c r="K24" t="s">
         <v>395</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>112</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>544</v>
       </c>
       <c r="E25" t="s">
-        <v>452</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
         <v>77</v>
@@ -12324,16 +14915,19 @@
       <c r="K25" t="s">
         <v>530</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>113</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>227</v>
+        <v>452</v>
       </c>
       <c r="G26" t="s">
         <v>284</v>
@@ -12341,16 +14935,19 @@
       <c r="K26" t="s">
         <v>86</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>114</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G27" t="s">
         <v>268</v>
@@ -12358,16 +14955,19 @@
       <c r="K27" t="s">
         <v>437</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>115</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>472</v>
+        <v>228</v>
       </c>
       <c r="G28" t="s">
         <v>285</v>
@@ -12375,16 +14975,16 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>417</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G29" t="s">
         <v>286</v>
@@ -12392,722 +14992,747 @@
       <c r="K29" t="s">
         <v>46</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>229</v>
+        <v>417</v>
       </c>
       <c r="E30" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="G30" t="s">
         <v>218</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>229</v>
+      </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>419</v>
       </c>
       <c r="G31" t="s">
         <v>277</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" t="s">
         <v>287</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" t="s">
         <v>511</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G34" t="s">
         <v>262</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
         <v>333</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G36" t="s">
         <v>309</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G37" t="s">
         <v>263</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G38" t="s">
         <v>310</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>72</v>
+      </c>
       <c r="G39" t="s">
         <v>269</v>
       </c>
-      <c r="Y39" t="s">
-        <v>396</v>
+      <c r="Z39" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="Y40" t="s">
-        <v>123</v>
+      <c r="Z40" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="Y41" t="s">
-        <v>124</v>
+      <c r="Z41" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>125</v>
+        <v>547</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>126</v>
+        <v>291</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>127</v>
+        <v>302</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>128</v>
+        <v>303</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>442</v>
+        <v>346</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>214</v>
+        <v>345</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>78</v>
+        <v>212</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>129</v>
+        <v>323</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>130</v>
+        <v>342</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>131</v>
+        <v>371</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>359</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>499</v>
+        <v>304</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>467</v>
+        <v>359</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>132</v>
+        <v>334</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>349</v>
+        <v>270</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>468</v>
+        <v>294</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>133</v>
+        <v>295</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>134</v>
+        <v>548</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>314</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>135</v>
+        <v>296</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>136</v>
+        <v>305</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>137</v>
+        <v>314</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>138</v>
+        <v>340</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>139</v>
+        <v>311</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>373</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>443</v>
+        <v>312</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>348</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>477</v>
+        <v>372</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>215</v>
+        <v>373</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>392</v>
+        <v>348</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>356</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>444</v>
+        <v>315</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>140</v>
+        <v>271</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>413</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>141</v>
+        <v>531</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>142</v>
+        <v>316</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>414</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>143</v>
+        <v>413</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>198</v>
+        <v>306</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>512</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>199</v>
+        <v>414</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>347</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>456</v>
+        <v>264</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>469</v>
+        <v>512</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>144</v>
+        <v>347</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>293</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>145</v>
+        <v>282</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>432</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>146</v>
+        <v>288</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>335</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>500</v>
+        <v>293</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>147</v>
+        <v>432</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>148</v>
+        <v>335</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>200</v>
+        <v>272</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>501</v>
+        <v>283</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>201</v>
+        <v>289</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>457</v>
+        <v>278</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>202</v>
+        <v>532</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>203</v>
+        <v>273</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y89" t="s">
-        <v>216</v>
+        <v>290</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y90" t="s">
-        <v>149</v>
+        <v>274</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y91" t="s">
-        <v>204</v>
+        <v>275</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>445</v>
+        <v>307</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y93" t="s">
-        <v>446</v>
+        <v>313</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
         <v>280</v>
       </c>
-      <c r="Y94" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
+      <c r="Z97" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="96">
-      <c r="Y96" t="s">
+    <row r="98">
+      <c r="Z98" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="97">
-      <c r="Y97" t="s">
+    <row r="99">
+      <c r="Z99" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="98">
-      <c r="Y98" t="s">
+    <row r="100">
+      <c r="Z100" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="99">
-      <c r="Y99" t="s">
+    <row r="101">
+      <c r="Z101" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="100">
-      <c r="Y100" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="101">
-      <c r="Y101" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="102">
-      <c r="Y102" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="103">
-      <c r="Y103" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="104">
-      <c r="Y104" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="105">
-      <c r="Y105" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="106">
-      <c r="Y106" t="s">
+    <row r="108">
+      <c r="Z108" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="107">
-      <c r="Y107" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/examples/plan-iteration/artifact/script/plan-iteration.xlsx
+++ b/examples/plan-iteration/artifact/script/plan-iteration.xlsx
@@ -29,7 +29,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,13 +42,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10595" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11146" uniqueCount="550">
   <si>
     <t>description</t>
   </si>
@@ -1714,6 +1714,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1724,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="315" x14ac:knownFonts="1">
+  <fonts count="331" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3717,8 +3720,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="556">
+  <fills count="583">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6865,8 +6969,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="551">
+  <borders count="583">
     <border>
       <left/>
       <right/>
@@ -12438,6 +12695,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12445,7 +13028,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="341">
+  <cellXfs count="357">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13438,52 +14021,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="298" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="531" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="531" fontId="299" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="534" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="534" fontId="301" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="537" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="537" fontId="302" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="540" borderId="538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="538" fillId="540" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="304" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="305" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="546" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="546" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="537" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="537" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="549" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="549" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="549" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="549" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="552" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="552" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="314" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="558" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="561" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="564" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="567" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="573" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="564" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="576" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="576" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="579" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13808,7 +14439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13893,24 +14524,21 @@
         <v>400</v>
       </c>
       <c r="Y1" t="s">
-        <v>544</v>
+        <v>55</v>
       </c>
       <c r="Z1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC1" t="s">
-        <v>58</v>
+        <v>417</v>
       </c>
       <c r="AD1" t="s">
-        <v>417</v>
-      </c>
-      <c r="AE1" t="s">
         <v>229</v>
       </c>
     </row>
@@ -13988,24 +14616,21 @@
         <v>410</v>
       </c>
       <c r="Y2" t="s">
-        <v>546</v>
+        <v>98</v>
       </c>
       <c r="Z2" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="AA2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AB2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AC2" t="s">
-        <v>184</v>
+        <v>435</v>
       </c>
       <c r="AD2" t="s">
-        <v>435</v>
-      </c>
-      <c r="AE2" t="s">
         <v>503</v>
       </c>
     </row>
@@ -14076,22 +14701,22 @@
       <c r="X3" t="s">
         <v>411</v>
       </c>
+      <c r="Y3" t="s">
+        <v>99</v>
+      </c>
       <c r="Z3" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="AA3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AB3" t="s">
-        <v>178</v>
+        <v>367</v>
       </c>
       <c r="AC3" t="s">
-        <v>367</v>
+        <v>185</v>
       </c>
       <c r="AD3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -14159,22 +14784,22 @@
       <c r="X4" t="s">
         <v>412</v>
       </c>
+      <c r="Y4" t="s">
+        <v>357</v>
+      </c>
       <c r="Z4" t="s">
-        <v>357</v>
+        <v>174</v>
       </c>
       <c r="AA4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AB4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AC4" t="s">
-        <v>185</v>
+        <v>427</v>
       </c>
       <c r="AD4" t="s">
-        <v>427</v>
-      </c>
-      <c r="AE4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -14233,22 +14858,22 @@
       <c r="W5" t="s">
         <v>362</v>
       </c>
+      <c r="Y5" t="s">
+        <v>358</v>
+      </c>
       <c r="Z5" t="s">
-        <v>358</v>
+        <v>175</v>
       </c>
       <c r="AA5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AB5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AC5" t="s">
-        <v>186</v>
+        <v>428</v>
       </c>
       <c r="AD5" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -14301,22 +14926,22 @@
       <c r="W6" t="s">
         <v>364</v>
       </c>
+      <c r="Y6" t="s">
+        <v>100</v>
+      </c>
       <c r="Z6" t="s">
-        <v>100</v>
+        <v>448</v>
       </c>
       <c r="AA6" t="s">
-        <v>448</v>
+        <v>181</v>
       </c>
       <c r="AB6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AC6" t="s">
-        <v>187</v>
+        <v>429</v>
       </c>
       <c r="AD6" t="s">
-        <v>429</v>
-      </c>
-      <c r="AE6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -14363,22 +14988,22 @@
       <c r="W7" t="s">
         <v>363</v>
       </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
       <c r="Z7" t="s">
-        <v>101</v>
+        <v>449</v>
       </c>
       <c r="AA7" t="s">
-        <v>449</v>
+        <v>182</v>
       </c>
       <c r="AB7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AC7" t="s">
-        <v>188</v>
+        <v>430</v>
       </c>
       <c r="AD7" t="s">
-        <v>430</v>
-      </c>
-      <c r="AE7" t="s">
         <v>538</v>
       </c>
     </row>
@@ -14419,22 +15044,22 @@
       <c r="W8" t="s">
         <v>365</v>
       </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
       <c r="Z8" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="AA8" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AB8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AC8" t="s">
-        <v>189</v>
+        <v>431</v>
       </c>
       <c r="AD8" t="s">
-        <v>431</v>
-      </c>
-      <c r="AE8" t="s">
         <v>539</v>
       </c>
     </row>
@@ -14475,13 +15100,13 @@
       <c r="W9" t="s">
         <v>366</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>210</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>190</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>540</v>
       </c>
     </row>
@@ -14516,13 +15141,13 @@
       <c r="T10" t="s">
         <v>409</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>259</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>191</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>234</v>
       </c>
     </row>
@@ -14554,13 +15179,13 @@
       <c r="R11" t="s">
         <v>250</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>260</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>261</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>235</v>
       </c>
     </row>
@@ -14592,13 +15217,13 @@
       <c r="R12" t="s">
         <v>251</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>192</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>236</v>
       </c>
     </row>
@@ -14627,13 +15252,13 @@
       <c r="R13" t="s">
         <v>256</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>329</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>193</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>478</v>
       </c>
     </row>
@@ -14662,13 +15287,13 @@
       <c r="R14" t="s">
         <v>252</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>104</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>194</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>504</v>
       </c>
     </row>
@@ -14694,13 +15319,13 @@
       <c r="R15" t="s">
         <v>253</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>105</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>195</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>505</v>
       </c>
     </row>
@@ -14718,7 +15343,7 @@
         <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>40</v>
+        <v>549</v>
       </c>
       <c r="Q16" t="s">
         <v>496</v>
@@ -14726,13 +15351,13 @@
       <c r="R16" t="s">
         <v>254</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>76</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>196</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>506</v>
       </c>
     </row>
@@ -14750,15 +15375,15 @@
         <v>83</v>
       </c>
       <c r="M17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s">
         <v>497</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>470</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>507</v>
       </c>
     </row>
@@ -14775,10 +15400,13 @@
       <c r="K18" t="s">
         <v>466</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y18" t="s">
         <v>106</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>479</v>
       </c>
     </row>
@@ -14795,10 +15423,10 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>107</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>508</v>
       </c>
     </row>
@@ -14815,10 +15443,10 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>108</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>509</v>
       </c>
     </row>
@@ -14835,10 +15463,10 @@
       <c r="K21" t="s">
         <v>383</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>109</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>510</v>
       </c>
     </row>
@@ -14855,10 +15483,10 @@
       <c r="K22" t="s">
         <v>474</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>498</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>237</v>
       </c>
     </row>
@@ -14875,10 +15503,10 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>111</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>541</v>
       </c>
     </row>
@@ -14895,16 +15523,16 @@
       <c r="K24" t="s">
         <v>395</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>112</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>544</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>64</v>
@@ -14915,16 +15543,16 @@
       <c r="K25" t="s">
         <v>530</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>113</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>452</v>
@@ -14935,16 +15563,16 @@
       <c r="K26" t="s">
         <v>86</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>114</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>227</v>
@@ -14955,16 +15583,16 @@
       <c r="K27" t="s">
         <v>437</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>115</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>228</v>
@@ -14975,13 +15603,13 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>417</v>
       </c>
       <c r="E29" t="s">
         <v>472</v>
@@ -14992,13 +15620,13 @@
       <c r="K29" t="s">
         <v>46</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>417</v>
+        <v>229</v>
       </c>
       <c r="E30" t="s">
         <v>473</v>
@@ -15006,21 +15634,18 @@
       <c r="G30" t="s">
         <v>218</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>229</v>
-      </c>
       <c r="E31" t="s">
         <v>419</v>
       </c>
       <c r="G31" t="s">
         <v>277</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -15031,7 +15656,7 @@
       <c r="G32" t="s">
         <v>287</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -15042,7 +15667,7 @@
       <c r="G33" t="s">
         <v>511</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -15053,7 +15678,7 @@
       <c r="G34" t="s">
         <v>262</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -15064,7 +15689,7 @@
       <c r="G35" t="s">
         <v>333</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>211</v>
       </c>
     </row>
@@ -15075,7 +15700,7 @@
       <c r="G36" t="s">
         <v>309</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -15086,7 +15711,7 @@
       <c r="G37" t="s">
         <v>263</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>341</v>
       </c>
     </row>
@@ -15097,7 +15722,7 @@
       <c r="G38" t="s">
         <v>310</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>441</v>
       </c>
     </row>
@@ -15108,7 +15733,7 @@
       <c r="G39" t="s">
         <v>269</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>536</v>
       </c>
     </row>
@@ -15116,7 +15741,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>396</v>
       </c>
     </row>
@@ -15124,7 +15749,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -15132,7 +15757,7 @@
       <c r="G42" t="s">
         <v>547</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -15140,7 +15765,7 @@
       <c r="G43" t="s">
         <v>291</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -15148,7 +15773,7 @@
       <c r="G44" t="s">
         <v>302</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -15156,7 +15781,7 @@
       <c r="G45" t="s">
         <v>303</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -15164,7 +15789,7 @@
       <c r="G46" t="s">
         <v>346</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -15172,7 +15797,7 @@
       <c r="G47" t="s">
         <v>345</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>442</v>
       </c>
     </row>
@@ -15180,7 +15805,7 @@
       <c r="G48" t="s">
         <v>212</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>214</v>
       </c>
     </row>
@@ -15188,7 +15813,7 @@
       <c r="G49" t="s">
         <v>323</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -15196,7 +15821,7 @@
       <c r="G50" t="s">
         <v>342</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>537</v>
       </c>
     </row>
@@ -15204,7 +15829,7 @@
       <c r="G51" t="s">
         <v>371</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -15212,7 +15837,7 @@
       <c r="G52" t="s">
         <v>304</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>130</v>
       </c>
     </row>
@@ -15220,7 +15845,7 @@
       <c r="G53" t="s">
         <v>359</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>131</v>
       </c>
     </row>
@@ -15228,7 +15853,7 @@
       <c r="G54" t="s">
         <v>334</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>499</v>
       </c>
     </row>
@@ -15236,7 +15861,7 @@
       <c r="G55" t="s">
         <v>270</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>467</v>
       </c>
     </row>
@@ -15244,7 +15869,7 @@
       <c r="G56" t="s">
         <v>294</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>132</v>
       </c>
     </row>
@@ -15252,7 +15877,7 @@
       <c r="G57" t="s">
         <v>295</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>349</v>
       </c>
     </row>
@@ -15260,7 +15885,7 @@
       <c r="G58" t="s">
         <v>548</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>468</v>
       </c>
     </row>
@@ -15268,7 +15893,7 @@
       <c r="G59" t="s">
         <v>296</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -15276,7 +15901,7 @@
       <c r="G60" t="s">
         <v>305</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -15284,7 +15909,7 @@
       <c r="G61" t="s">
         <v>314</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -15292,7 +15917,7 @@
       <c r="G62" t="s">
         <v>340</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -15300,7 +15925,7 @@
       <c r="G63" t="s">
         <v>311</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -15308,7 +15933,7 @@
       <c r="G64" t="s">
         <v>312</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>138</v>
       </c>
     </row>
@@ -15316,7 +15941,7 @@
       <c r="G65" t="s">
         <v>372</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>139</v>
       </c>
     </row>
@@ -15324,7 +15949,7 @@
       <c r="G66" t="s">
         <v>373</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>443</v>
       </c>
     </row>
@@ -15332,7 +15957,7 @@
       <c r="G67" t="s">
         <v>348</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>477</v>
       </c>
     </row>
@@ -15340,7 +15965,7 @@
       <c r="G68" t="s">
         <v>315</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>215</v>
       </c>
     </row>
@@ -15348,7 +15973,7 @@
       <c r="G69" t="s">
         <v>271</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>392</v>
       </c>
     </row>
@@ -15356,7 +15981,7 @@
       <c r="G70" t="s">
         <v>531</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>444</v>
       </c>
     </row>
@@ -15364,7 +15989,7 @@
       <c r="G71" t="s">
         <v>316</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -15372,7 +15997,7 @@
       <c r="G72" t="s">
         <v>413</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -15380,7 +16005,7 @@
       <c r="G73" t="s">
         <v>306</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>142</v>
       </c>
     </row>
@@ -15388,7 +16013,7 @@
       <c r="G74" t="s">
         <v>414</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>143</v>
       </c>
     </row>
@@ -15396,7 +16021,7 @@
       <c r="G75" t="s">
         <v>264</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>198</v>
       </c>
     </row>
@@ -15404,7 +16029,7 @@
       <c r="G76" t="s">
         <v>512</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>199</v>
       </c>
     </row>
@@ -15412,7 +16037,7 @@
       <c r="G77" t="s">
         <v>347</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>456</v>
       </c>
     </row>
@@ -15420,7 +16045,7 @@
       <c r="G78" t="s">
         <v>282</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>469</v>
       </c>
     </row>
@@ -15428,7 +16053,7 @@
       <c r="G79" t="s">
         <v>288</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -15436,7 +16061,7 @@
       <c r="G80" t="s">
         <v>293</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>145</v>
       </c>
     </row>
@@ -15444,7 +16069,7 @@
       <c r="G81" t="s">
         <v>432</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>146</v>
       </c>
     </row>
@@ -15452,7 +16077,7 @@
       <c r="G82" t="s">
         <v>335</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>500</v>
       </c>
     </row>
@@ -15460,7 +16085,7 @@
       <c r="G83" t="s">
         <v>272</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>147</v>
       </c>
     </row>
@@ -15468,7 +16093,7 @@
       <c r="G84" t="s">
         <v>283</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>148</v>
       </c>
     </row>
@@ -15476,7 +16101,7 @@
       <c r="G85" t="s">
         <v>289</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>200</v>
       </c>
     </row>
@@ -15484,7 +16109,7 @@
       <c r="G86" t="s">
         <v>278</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>501</v>
       </c>
     </row>
@@ -15492,7 +16117,7 @@
       <c r="G87" t="s">
         <v>532</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>201</v>
       </c>
     </row>
@@ -15500,7 +16125,7 @@
       <c r="G88" t="s">
         <v>273</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>457</v>
       </c>
     </row>
@@ -15508,7 +16133,7 @@
       <c r="G89" t="s">
         <v>290</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>202</v>
       </c>
     </row>
@@ -15516,7 +16141,7 @@
       <c r="G90" t="s">
         <v>274</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>203</v>
       </c>
     </row>
@@ -15524,7 +16149,7 @@
       <c r="G91" t="s">
         <v>275</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>216</v>
       </c>
     </row>
@@ -15532,7 +16157,7 @@
       <c r="G92" t="s">
         <v>307</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>149</v>
       </c>
     </row>
@@ -15540,7 +16165,7 @@
       <c r="G93" t="s">
         <v>313</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>204</v>
       </c>
     </row>
@@ -15548,7 +16173,7 @@
       <c r="G94" t="s">
         <v>297</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>445</v>
       </c>
     </row>
@@ -15556,7 +16181,7 @@
       <c r="G95" t="s">
         <v>343</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>446</v>
       </c>
     </row>
@@ -15564,7 +16189,7 @@
       <c r="G96" t="s">
         <v>279</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>205</v>
       </c>
     </row>
@@ -15572,167 +16197,167 @@
       <c r="G97" t="s">
         <v>280</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/examples/plan-iteration/artifact/script/plan-iteration.xlsx
+++ b/examples/plan-iteration/artifact/script/plan-iteration.xlsx
@@ -23,7 +23,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11146" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12813" uniqueCount="556">
   <si>
     <t>description</t>
   </si>
@@ -1717,6 +1717,24 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1724,7 +1742,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="331" x14ac:knownFonts="1">
+  <fonts count="379" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3821,8 +3839,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="583">
+  <fills count="664">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7122,8 +7443,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="583">
+  <borders count="679">
     <border>
       <left/>
       <right/>
@@ -13021,6 +13801,984 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13028,7 +14786,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="357">
+  <cellXfs count="405">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14069,52 +15827,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="558" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="558" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="561" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="561" fontId="317" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="564" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="566" fillId="564" fontId="318" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="567" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="567" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="320" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="321" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="573" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="573" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="564" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="564" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="576" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="576" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="576" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="576" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="579" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="579" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="330" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="585" fontId="331" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="594" fillId="588" fontId="333" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="591" fontId="334" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="594" fontId="335" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="336" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="337" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="338" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="600" fontId="339" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="591" fontId="340" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="603" fontId="341" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="603" fontId="342" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="343" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="606" fontId="344" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="345" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="346" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="622" fillId="612" fontId="347" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="348" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="615" fontId="349" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="618" fontId="350" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="621" fontId="351" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="352" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="353" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="354" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="627" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="618" fontId="356" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="630" fontId="357" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="630" fontId="358" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="359" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="633" fontId="360" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="361" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="362" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="639" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="642" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="645" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="648" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="654" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="645" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="657" borderId="678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="657" borderId="678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="660" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14439,7 +16341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14820,7 +16722,7 @@
         <v>436</v>
       </c>
       <c r="G5" t="s">
-        <v>339</v>
+        <v>553</v>
       </c>
       <c r="H5" t="s">
         <v>463</v>
@@ -14894,7 +16796,7 @@
         <v>486</v>
       </c>
       <c r="G6" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
       <c r="H6" t="s">
         <v>451</v>
@@ -14956,7 +16858,7 @@
         <v>226</v>
       </c>
       <c r="G7" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="H7" t="s">
         <v>450</v>
@@ -15018,7 +16920,7 @@
         <v>321</v>
       </c>
       <c r="G8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H8" t="s">
         <v>331</v>
@@ -15074,7 +16976,7 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>308</v>
+        <v>370</v>
       </c>
       <c r="H9" t="s">
         <v>332</v>
@@ -15118,7 +17020,7 @@
         <v>317</v>
       </c>
       <c r="G10" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="H10" t="s">
         <v>455</v>
@@ -15159,7 +17061,7 @@
         <v>257</v>
       </c>
       <c r="G11" t="s">
-        <v>276</v>
+        <v>355</v>
       </c>
       <c r="H11" t="s">
         <v>325</v>
@@ -15197,7 +17099,7 @@
         <v>322</v>
       </c>
       <c r="G12" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="H12" t="s">
         <v>326</v>
@@ -15235,7 +17137,7 @@
         <v>344</v>
       </c>
       <c r="G13" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="H13" t="s">
         <v>327</v>
@@ -15270,7 +17172,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="H14" t="s">
         <v>328</v>
@@ -15305,7 +17207,7 @@
         <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K15" t="s">
         <v>491</v>
@@ -15337,7 +17239,7 @@
         <v>388</v>
       </c>
       <c r="G16" t="s">
-        <v>319</v>
+        <v>267</v>
       </c>
       <c r="K16" t="s">
         <v>82</v>
@@ -15369,7 +17271,7 @@
         <v>389</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>319</v>
       </c>
       <c r="K17" t="s">
         <v>83</v>
@@ -15395,7 +17297,7 @@
         <v>418</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s">
         <v>466</v>
@@ -15418,7 +17320,7 @@
         <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>298</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s">
         <v>84</v>
@@ -15438,7 +17340,7 @@
         <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K20" t="s">
         <v>85</v>
@@ -15458,7 +17360,7 @@
         <v>258</v>
       </c>
       <c r="G21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K21" t="s">
         <v>383</v>
@@ -15478,7 +17380,7 @@
         <v>545</v>
       </c>
       <c r="G22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K22" t="s">
         <v>474</v>
@@ -15498,7 +17400,7 @@
         <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="K23" t="s">
         <v>44</v>
@@ -15518,13 +17420,13 @@
         <v>324</v>
       </c>
       <c r="G24" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="K24" t="s">
         <v>395</v>
       </c>
       <c r="Y24" t="s">
-        <v>112</v>
+        <v>550</v>
       </c>
       <c r="AD24" t="s">
         <v>542</v>
@@ -15538,13 +17440,13 @@
         <v>64</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="K25" t="s">
         <v>530</v>
       </c>
       <c r="Y25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD25" t="s">
         <v>543</v>
@@ -15558,13 +17460,13 @@
         <v>452</v>
       </c>
       <c r="G26" t="s">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s">
         <v>86</v>
       </c>
       <c r="Y26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD26" t="s">
         <v>238</v>
@@ -15578,13 +17480,13 @@
         <v>227</v>
       </c>
       <c r="G27" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="K27" t="s">
         <v>437</v>
       </c>
       <c r="Y27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD27" t="s">
         <v>239</v>
@@ -15598,13 +17500,13 @@
         <v>228</v>
       </c>
       <c r="G28" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="K28" t="s">
         <v>45</v>
       </c>
       <c r="Y28" t="s">
-        <v>330</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -15615,13 +17517,13 @@
         <v>472</v>
       </c>
       <c r="G29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
       </c>
       <c r="Y29" t="s">
-        <v>116</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30">
@@ -15632,10 +17534,10 @@
         <v>473</v>
       </c>
       <c r="G30" t="s">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="Y30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
@@ -15643,10 +17545,10 @@
         <v>419</v>
       </c>
       <c r="G31" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="Y31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -15654,10 +17556,10 @@
         <v>65</v>
       </c>
       <c r="G32" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="Y32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
@@ -15665,10 +17567,10 @@
         <v>66</v>
       </c>
       <c r="G33" t="s">
-        <v>511</v>
+        <v>287</v>
       </c>
       <c r="Y33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
@@ -15676,10 +17578,10 @@
         <v>67</v>
       </c>
       <c r="G34" t="s">
-        <v>262</v>
+        <v>511</v>
       </c>
       <c r="Y34" t="s">
-        <v>121</v>
+        <v>551</v>
       </c>
     </row>
     <row r="35">
@@ -15687,10 +17589,10 @@
         <v>68</v>
       </c>
       <c r="G35" t="s">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="Y35" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -15698,10 +17600,10 @@
         <v>69</v>
       </c>
       <c r="G36" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="Y36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
@@ -15709,10 +17611,10 @@
         <v>70</v>
       </c>
       <c r="G37" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="Y37" t="s">
-        <v>341</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38">
@@ -15720,10 +17622,10 @@
         <v>71</v>
       </c>
       <c r="G38" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="Y38" t="s">
-        <v>441</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39">
@@ -15731,633 +17633,661 @@
         <v>72</v>
       </c>
       <c r="G39" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="Y39" t="s">
-        <v>536</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="Y40" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s">
-        <v>123</v>
+        <v>536</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>547</v>
+        <v>213</v>
       </c>
       <c r="Y42" t="s">
-        <v>124</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>291</v>
+        <v>547</v>
       </c>
       <c r="Y43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="Y44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Y45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="Y46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Y47" t="s">
-        <v>442</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>212</v>
+        <v>345</v>
       </c>
       <c r="Y48" t="s">
-        <v>214</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="Y49" t="s">
-        <v>78</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="Y50" t="s">
-        <v>537</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="Y51" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>304</v>
+        <v>371</v>
       </c>
       <c r="Y52" t="s">
-        <v>130</v>
+        <v>537</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="Y53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="Y54" t="s">
-        <v>499</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>270</v>
+        <v>334</v>
       </c>
       <c r="Y55" t="s">
-        <v>467</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="Y56" t="s">
-        <v>132</v>
+        <v>499</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y57" t="s">
-        <v>349</v>
+        <v>467</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>548</v>
+        <v>295</v>
       </c>
       <c r="Y58" t="s">
-        <v>468</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>296</v>
+        <v>548</v>
       </c>
       <c r="Y59" t="s">
-        <v>133</v>
+        <v>349</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="Y60" t="s">
-        <v>134</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="Y61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="Y62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="Y63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y64" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>372</v>
+        <v>312</v>
       </c>
       <c r="Y65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Y66" t="s">
-        <v>443</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="Y67" t="s">
-        <v>477</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="Y68" t="s">
-        <v>215</v>
+        <v>443</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="Y69" t="s">
-        <v>392</v>
+        <v>477</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>531</v>
+        <v>271</v>
       </c>
       <c r="Y70" t="s">
-        <v>444</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>316</v>
+        <v>531</v>
       </c>
       <c r="Y71" t="s">
-        <v>140</v>
+        <v>392</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>413</v>
+        <v>316</v>
       </c>
       <c r="Y72" t="s">
-        <v>141</v>
+        <v>444</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>306</v>
+        <v>413</v>
       </c>
       <c r="Y73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>414</v>
+        <v>306</v>
       </c>
       <c r="Y74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>264</v>
+        <v>414</v>
       </c>
       <c r="Y75" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>512</v>
+        <v>264</v>
       </c>
       <c r="Y76" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>347</v>
+        <v>512</v>
       </c>
       <c r="Y77" t="s">
-        <v>456</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="Y78" t="s">
-        <v>469</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Y79" t="s">
-        <v>144</v>
+        <v>456</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Y80" t="s">
-        <v>145</v>
+        <v>469</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>432</v>
+        <v>293</v>
       </c>
       <c r="Y81" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>335</v>
+        <v>432</v>
       </c>
       <c r="Y82" t="s">
-        <v>500</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>272</v>
+        <v>335</v>
       </c>
       <c r="Y83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="Y84" t="s">
-        <v>148</v>
+        <v>500</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="Y85" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="Y86" t="s">
-        <v>501</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>532</v>
+        <v>278</v>
       </c>
       <c r="Y87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>273</v>
+        <v>532</v>
       </c>
       <c r="Y88" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="Y89" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="Y90" t="s">
-        <v>203</v>
+        <v>457</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y91" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="Y92" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Y93" t="s">
-        <v>204</v>
+        <v>554</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="Y94" t="s">
-        <v>445</v>
+        <v>555</v>
       </c>
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
       <c r="Y95" t="s">
-        <v>446</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="Y96" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97">
       <c r="G97" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>280</v>
       </c>
-      <c r="Y97" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>207</v>
+        <v>445</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>208</v>
+        <v>446</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>502</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>513</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>514</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>386</v>
+        <v>502</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>151</v>
+        <v>513</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>153</v>
+        <v>514</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>154</v>
+        <v>386</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>447</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>167</v>
+        <v>447</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>168</v>
+        <v>552</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>171</v>
       </c>
     </row>

--- a/examples/plan-iteration/artifact/script/plan-iteration.xlsx
+++ b/examples/plan-iteration/artifact/script/plan-iteration.xlsx
@@ -19,40 +19,41 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12813" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13935" uniqueCount="562">
   <si>
     <t>description</t>
   </si>
@@ -1735,6 +1736,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1742,7 +1761,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="379" x14ac:knownFonts="1">
+  <fonts count="411" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4142,8 +4161,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="664">
+  <fills count="718">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7902,8 +8123,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="679">
+  <borders count="743">
     <border>
       <left/>
       <right/>
@@ -11993,6 +12520,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -14786,7 +15965,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="405">
+  <cellXfs count="437">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15971,52 +17150,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="639" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="639" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="642" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="642" fontId="365" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="645" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="645" fontId="366" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="648" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="648" fontId="367" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="368" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="369" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="370" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="654" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="654" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="645" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="645" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="657" borderId="678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="678" fillId="657" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="657" borderId="678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="678" fillId="657" fontId="374" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="660" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="660" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="378" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="666" fontId="379" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="380" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="669" fontId="381" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="672" fontId="382" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="675" fontId="383" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="384" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="385" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="386" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="681" fontId="387" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="706" fillId="672" fontId="388" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="684" fontId="389" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="684" fontId="390" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="675" fontId="391" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="687" fontId="392" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="675" fontId="393" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="394" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="693" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="696" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="699" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="708" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="699" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="711" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="711" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="702" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="714" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="702" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16341,7 +17616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -16366,81 +17641,84 @@
         <v>480</v>
       </c>
       <c r="E1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>350</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>336</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>515</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>481</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>197</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>53</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>241</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>54</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>399</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>415</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>416</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>360</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>400</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>417</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>229</v>
       </c>
     </row>
@@ -16458,81 +17736,84 @@
         <v>482</v>
       </c>
       <c r="E2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>73</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>75</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>453</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>80</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>464</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>317</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>387</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>438</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>516</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>492</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>420</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>433</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>255</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>219</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>401</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>422</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>423</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>384</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>410</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>172</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>435</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>503</v>
       </c>
     </row>
@@ -16549,76 +17830,76 @@
       <c r="D3" t="s">
         <v>529</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>461</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>368</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>89</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>50</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>487</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>352</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>344</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>337</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>87</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>517</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>493</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>434</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>242</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>220</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>402</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>424</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>385</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>411</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>99</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>173</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>367</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>185</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -16632,82 +17913,82 @@
       <c r="D4" t="s">
         <v>483</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>74</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>390</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>454</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>488</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>353</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>240</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>338</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>518</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>494</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>243</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>221</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>403</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>425</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>361</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>412</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>357</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>174</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>185</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>427</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>556</v>
       </c>
       <c r="B5" t="s">
         <v>378</v>
@@ -16715,73 +17996,73 @@
       <c r="D5" t="s">
         <v>484</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>462</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>436</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>553</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>463</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>533</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>354</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>465</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>88</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>528</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>30</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>244</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>222</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>404</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>426</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>362</v>
       </c>
-      <c r="Y5" t="s">
-        <v>358</v>
-      </c>
       <c r="Z5" t="s">
+        <v>560</v>
+      </c>
+      <c r="AA5" t="s">
         <v>175</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>186</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>428</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>379</v>
@@ -16789,1505 +18070,1513 @@
       <c r="D6" t="s">
         <v>485</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>486</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>339</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>451</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>351</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>73</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>522</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>31</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>245</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>394</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>405</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>364</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>100</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>448</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>187</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>429</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>380</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>226</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>391</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>450</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>534</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>317</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>523</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>33</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>246</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>421</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>406</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>363</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>101</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>449</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>188</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>430</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>381</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>321</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>369</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>331</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>489</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>524</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>92</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>247</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>407</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>365</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>102</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>176</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>183</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>189</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>431</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>382</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>370</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>332</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>81</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>527</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>93</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>248</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>408</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>366</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>210</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>190</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>350</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>317</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>308</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>455</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>38</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>519</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>440</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>249</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>409</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>259</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>191</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>257</v>
-      </c>
-      <c r="G11" t="s">
+        <v>350</v>
+      </c>
+      <c r="F11" t="s">
+        <v>559</v>
+      </c>
+      <c r="H11" t="s">
         <v>355</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>325</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>490</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>475</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>520</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>94</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>250</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>260</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>261</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>336</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>322</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>276</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>326</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>393</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>535</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>521</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>41</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>251</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>103</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>192</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>336</v>
+      </c>
+      <c r="F13" t="s">
         <v>344</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>265</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>327</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>439</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>95</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>256</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>329</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>193</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>515</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>318</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>328</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>42</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>476</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>96</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>252</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>104</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>194</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>481</v>
-      </c>
-      <c r="E15" t="s">
+        <v>515</v>
+      </c>
+      <c r="F15" t="s">
         <v>60</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>266</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>491</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>495</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>253</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>105</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>195</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" t="s">
+        <v>481</v>
+      </c>
+      <c r="F16" t="s">
         <v>388</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>267</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>82</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>549</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>496</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>254</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>76</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>196</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" t="s">
         <v>389</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>319</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>83</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>40</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>497</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>470</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>241</v>
-      </c>
-      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
         <v>418</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>90</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>466</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>43</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>106</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F19" t="s">
         <v>61</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>91</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>84</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>107</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>399</v>
-      </c>
-      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
         <v>62</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>298</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>85</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>108</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>415</v>
-      </c>
-      <c r="E21" t="s">
+        <v>399</v>
+      </c>
+      <c r="F21" t="s">
         <v>258</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>299</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>383</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>109</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>416</v>
-      </c>
-      <c r="E22" t="s">
+        <v>415</v>
+      </c>
+      <c r="F22" t="s">
         <v>545</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>300</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>474</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>498</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>360</v>
-      </c>
-      <c r="E23" t="s">
+        <v>416</v>
+      </c>
+      <c r="F23" t="s">
         <v>63</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>301</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>44</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>111</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>400</v>
-      </c>
-      <c r="E24" t="s">
+        <v>360</v>
+      </c>
+      <c r="F24" t="s">
         <v>324</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>292</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>395</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>550</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F25" t="s">
         <v>64</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>281</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>530</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>112</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
         <v>452</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>77</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>86</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>113</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
         <v>227</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>284</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>437</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>114</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" t="s">
         <v>228</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>268</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>45</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>417</v>
-      </c>
-      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
         <v>472</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>285</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>46</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>417</v>
+      </c>
+      <c r="F30" t="s">
+        <v>473</v>
+      </c>
+      <c r="H30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>229</v>
       </c>
-      <c r="E30" t="s">
-        <v>473</v>
-      </c>
-      <c r="G30" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>419</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>218</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>65</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>277</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>66</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>287</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>67</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>511</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>68</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>262</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>69</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>333</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>70</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>309</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>71</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>263</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>72</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>310</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>269</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>79</v>
       </c>
-      <c r="Y41" t="s">
-        <v>536</v>
+      <c r="Z41" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>213</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>547</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>291</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>302</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>303</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>346</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>345</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>212</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>323</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>342</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>371</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>304</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>359</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>334</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>270</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>294</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>295</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>548</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>296</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>305</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>314</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>340</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>311</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>312</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>372</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>373</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>348</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>315</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>271</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>531</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>316</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>413</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>306</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>414</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>264</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>512</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>347</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>282</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>288</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>293</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>432</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>335</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>272</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>283</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>289</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>278</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>532</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>273</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>290</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>274</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>275</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>307</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>313</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>297</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>343</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>279</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>280</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>171</v>
       </c>
     </row>

--- a/examples/plan-iteration/artifact/script/plan-iteration.xlsx
+++ b/examples/plan-iteration/artifact/script/plan-iteration.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
     <definedName name="external">'#system'!$J$2:$J$5</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13935" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15060" uniqueCount="567">
   <si>
     <t>description</t>
   </si>
@@ -1754,6 +1754,21 @@
   </si>
   <si>
     <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1776,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="411" x14ac:knownFonts="1">
+  <fonts count="443" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4363,8 +4378,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="718">
+  <fills count="772">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8429,8 +8646,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="743">
+  <borders count="807">
     <border>
       <left/>
       <right/>
@@ -12520,6 +13043,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -15965,7 +17140,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="437">
+  <cellXfs count="469">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17246,52 +18421,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="693" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="693" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="696" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="696" fontId="397" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="699" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="699" fontId="398" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="399" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="400" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="401" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="402" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="708" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="734" fillId="708" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="699" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="699" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="711" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="711" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="711" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="711" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="702" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="702" fontId="407" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="714" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="714" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="702" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="702" fontId="409" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="410" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="720" fontId="411" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="412" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="723" fontId="413" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="726" fontId="414" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="762" fillId="729" fontId="415" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="416" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="417" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="418" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="735" fontId="419" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="726" fontId="420" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="738" fontId="421" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="738" fontId="422" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="729" fontId="423" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="741" fontId="424" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="729" fontId="425" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="426" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="747" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="750" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="753" borderId="790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="756" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="762" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="753" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="765" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="765" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="756" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="768" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="756" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17932,7 +19203,7 @@
         <v>353</v>
       </c>
       <c r="L4" t="s">
-        <v>240</v>
+        <v>565</v>
       </c>
       <c r="M4" t="s">
         <v>338</v>
@@ -17968,7 +19239,7 @@
         <v>412</v>
       </c>
       <c r="Z4" t="s">
-        <v>357</v>
+        <v>566</v>
       </c>
       <c r="AA4" t="s">
         <v>174</v>
@@ -18015,7 +19286,7 @@
         <v>354</v>
       </c>
       <c r="L5" t="s">
-        <v>465</v>
+        <v>240</v>
       </c>
       <c r="N5" t="s">
         <v>88</v>
@@ -18086,7 +19357,7 @@
         <v>351</v>
       </c>
       <c r="L6" t="s">
-        <v>73</v>
+        <v>465</v>
       </c>
       <c r="N6" t="s">
         <v>29</v>
@@ -18148,7 +19419,7 @@
         <v>534</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="N7" t="s">
         <v>317</v>
@@ -18207,7 +19478,7 @@
         <v>331</v>
       </c>
       <c r="L8" t="s">
-        <v>489</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>34</v>
@@ -18263,7 +19534,7 @@
         <v>332</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>489</v>
       </c>
       <c r="N9" t="s">
         <v>35</v>
@@ -18307,7 +19578,7 @@
         <v>455</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="N10" t="s">
         <v>36</v>
@@ -18348,7 +19619,7 @@
         <v>325</v>
       </c>
       <c r="L11" t="s">
-        <v>490</v>
+        <v>38</v>
       </c>
       <c r="N11" t="s">
         <v>475</v>
@@ -18386,7 +19657,7 @@
         <v>326</v>
       </c>
       <c r="L12" t="s">
-        <v>393</v>
+        <v>490</v>
       </c>
       <c r="N12" t="s">
         <v>535</v>
@@ -18424,7 +19695,7 @@
         <v>327</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>393</v>
       </c>
       <c r="N13" t="s">
         <v>439</v>
@@ -18459,7 +19730,7 @@
         <v>328</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>476</v>
@@ -18491,7 +19762,7 @@
         <v>266</v>
       </c>
       <c r="L15" t="s">
-        <v>491</v>
+        <v>42</v>
       </c>
       <c r="N15" t="s">
         <v>39</v>
@@ -18523,7 +19794,7 @@
         <v>267</v>
       </c>
       <c r="L16" t="s">
-        <v>82</v>
+        <v>491</v>
       </c>
       <c r="N16" t="s">
         <v>549</v>
@@ -18555,7 +19826,7 @@
         <v>319</v>
       </c>
       <c r="L17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N17" t="s">
         <v>40</v>
@@ -18581,7 +19852,7 @@
         <v>90</v>
       </c>
       <c r="L18" t="s">
-        <v>466</v>
+        <v>83</v>
       </c>
       <c r="N18" t="s">
         <v>43</v>
@@ -18598,13 +19869,13 @@
         <v>241</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>564</v>
       </c>
       <c r="H19" t="s">
         <v>91</v>
       </c>
       <c r="L19" t="s">
-        <v>84</v>
+        <v>466</v>
       </c>
       <c r="Z19" t="s">
         <v>107</v>
@@ -18618,13 +19889,13 @@
         <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
         <v>298</v>
       </c>
       <c r="L20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z20" t="s">
         <v>108</v>
@@ -18638,13 +19909,13 @@
         <v>399</v>
       </c>
       <c r="F21" t="s">
-        <v>258</v>
+        <v>62</v>
       </c>
       <c r="H21" t="s">
         <v>299</v>
       </c>
       <c r="L21" t="s">
-        <v>383</v>
+        <v>85</v>
       </c>
       <c r="Z21" t="s">
         <v>109</v>
@@ -18658,13 +19929,13 @@
         <v>415</v>
       </c>
       <c r="F22" t="s">
-        <v>545</v>
+        <v>258</v>
       </c>
       <c r="H22" t="s">
         <v>300</v>
       </c>
       <c r="L22" t="s">
-        <v>474</v>
+        <v>563</v>
       </c>
       <c r="Z22" t="s">
         <v>498</v>
@@ -18678,13 +19949,13 @@
         <v>416</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>545</v>
       </c>
       <c r="H23" t="s">
         <v>301</v>
       </c>
       <c r="L23" t="s">
-        <v>44</v>
+        <v>474</v>
       </c>
       <c r="Z23" t="s">
         <v>111</v>
@@ -18698,13 +19969,13 @@
         <v>360</v>
       </c>
       <c r="F24" t="s">
-        <v>324</v>
+        <v>63</v>
       </c>
       <c r="H24" t="s">
         <v>292</v>
       </c>
       <c r="L24" t="s">
-        <v>395</v>
+        <v>44</v>
       </c>
       <c r="Z24" t="s">
         <v>550</v>
@@ -18718,13 +19989,13 @@
         <v>400</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>324</v>
       </c>
       <c r="H25" t="s">
         <v>281</v>
       </c>
       <c r="L25" t="s">
-        <v>530</v>
+        <v>395</v>
       </c>
       <c r="Z25" t="s">
         <v>112</v>
@@ -18738,13 +20009,13 @@
         <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>452</v>
+        <v>64</v>
       </c>
       <c r="H26" t="s">
         <v>77</v>
       </c>
       <c r="L26" t="s">
-        <v>86</v>
+        <v>530</v>
       </c>
       <c r="Z26" t="s">
         <v>113</v>
@@ -18758,13 +20029,13 @@
         <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>227</v>
+        <v>452</v>
       </c>
       <c r="H27" t="s">
         <v>284</v>
       </c>
       <c r="L27" t="s">
-        <v>437</v>
+        <v>86</v>
       </c>
       <c r="Z27" t="s">
         <v>114</v>
@@ -18778,13 +20049,13 @@
         <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H28" t="s">
         <v>268</v>
       </c>
       <c r="L28" t="s">
-        <v>45</v>
+        <v>437</v>
       </c>
       <c r="Z28" t="s">
         <v>115</v>
@@ -18795,13 +20066,13 @@
         <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>472</v>
+        <v>228</v>
       </c>
       <c r="H29" t="s">
         <v>285</v>
       </c>
       <c r="L29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z29" t="s">
         <v>330</v>
@@ -18812,10 +20083,13 @@
         <v>417</v>
       </c>
       <c r="F30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H30" t="s">
         <v>286</v>
+      </c>
+      <c r="L30" t="s">
+        <v>46</v>
       </c>
       <c r="Z30" t="s">
         <v>116</v>
@@ -18826,7 +20100,7 @@
         <v>229</v>
       </c>
       <c r="F31" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="H31" t="s">
         <v>218</v>
@@ -18837,7 +20111,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>65</v>
+        <v>419</v>
       </c>
       <c r="H32" t="s">
         <v>277</v>
@@ -18848,7 +20122,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
         <v>287</v>
@@ -18859,7 +20133,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
         <v>511</v>
@@ -18870,7 +20144,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
         <v>262</v>
@@ -18881,7 +20155,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
         <v>333</v>
@@ -18892,7 +20166,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
         <v>309</v>
@@ -18903,7 +20177,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
         <v>263</v>
@@ -18914,7 +20188,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
         <v>310</v>
@@ -18924,6 +20198,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>72</v>
+      </c>
       <c r="H40" t="s">
         <v>269</v>
       </c>

--- a/examples/plan-iteration/artifact/script/plan-iteration.xlsx
+++ b/examples/plan-iteration/artifact/script/plan-iteration.xlsx
@@ -19,13 +19,13 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15060" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15625" uniqueCount="570">
   <si>
     <t>description</t>
   </si>
@@ -1769,6 +1769,15 @@
   </si>
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1785,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="443" x14ac:knownFonts="1">
+  <fonts count="459" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4580,8 +4589,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="772">
+  <fills count="799">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8952,8 +9062,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="807">
+  <borders count="839">
     <border>
       <left/>
       <right/>
@@ -13043,6 +13306,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -17140,7 +17729,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="469">
+  <cellXfs count="485">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18517,52 +19106,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="426" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="427" fillId="747" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="747" fontId="427" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="428" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="429" fillId="750" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="750" fontId="429" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="430" fillId="753" borderId="790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="790" fillId="753" fontId="430" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="431" fillId="756" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="756" fontId="431" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="432" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="433" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="433" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="434" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="435" fillId="762" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="762" fontId="435" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="436" fillId="753" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="753" fontId="436" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="437" fillId="765" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="765" fontId="437" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="438" fillId="765" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="765" fontId="438" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="439" fillId="756" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="756" fontId="439" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="768" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="768" fontId="440" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="756" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="756" fontId="441" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="442" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="774" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="777" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="780" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="783" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="789" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="780" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="792" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="792" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18887,7 +19524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19353,6 +19990,9 @@
       <c r="I6" t="s">
         <v>451</v>
       </c>
+      <c r="J6" t="s">
+        <v>567</v>
+      </c>
       <c r="K6" t="s">
         <v>351</v>
       </c>
@@ -19869,7 +20509,7 @@
         <v>241</v>
       </c>
       <c r="F19" t="s">
-        <v>564</v>
+        <v>61</v>
       </c>
       <c r="H19" t="s">
         <v>91</v>
@@ -19889,7 +20529,7 @@
         <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
         <v>298</v>
@@ -19909,7 +20549,7 @@
         <v>399</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>258</v>
       </c>
       <c r="H21" t="s">
         <v>299</v>
@@ -19929,7 +20569,7 @@
         <v>415</v>
       </c>
       <c r="F22" t="s">
-        <v>258</v>
+        <v>545</v>
       </c>
       <c r="H22" t="s">
         <v>300</v>
@@ -19949,7 +20589,7 @@
         <v>416</v>
       </c>
       <c r="F23" t="s">
-        <v>545</v>
+        <v>63</v>
       </c>
       <c r="H23" t="s">
         <v>301</v>
@@ -19969,7 +20609,7 @@
         <v>360</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>324</v>
       </c>
       <c r="H24" t="s">
         <v>292</v>
@@ -19989,7 +20629,7 @@
         <v>400</v>
       </c>
       <c r="F25" t="s">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="H25" t="s">
         <v>281</v>
@@ -20009,7 +20649,7 @@
         <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>452</v>
       </c>
       <c r="H26" t="s">
         <v>77</v>
@@ -20029,7 +20669,7 @@
         <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>452</v>
+        <v>227</v>
       </c>
       <c r="H27" t="s">
         <v>284</v>
@@ -20049,7 +20689,7 @@
         <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H28" t="s">
         <v>268</v>
@@ -20066,7 +20706,7 @@
         <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>228</v>
+        <v>472</v>
       </c>
       <c r="H29" t="s">
         <v>285</v>
@@ -20083,7 +20723,7 @@
         <v>417</v>
       </c>
       <c r="F30" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H30" t="s">
         <v>286</v>
@@ -20100,7 +20740,7 @@
         <v>229</v>
       </c>
       <c r="F31" t="s">
-        <v>473</v>
+        <v>419</v>
       </c>
       <c r="H31" t="s">
         <v>218</v>
@@ -20111,7 +20751,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>419</v>
+        <v>65</v>
       </c>
       <c r="H32" t="s">
         <v>277</v>
@@ -20122,7 +20762,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H33" t="s">
         <v>287</v>
@@ -20133,7 +20773,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H34" t="s">
         <v>511</v>
@@ -20144,7 +20784,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H35" t="s">
         <v>262</v>
@@ -20155,7 +20795,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H36" t="s">
         <v>333</v>
@@ -20166,7 +20806,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H37" t="s">
         <v>309</v>
@@ -20177,7 +20817,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s">
         <v>263</v>
@@ -20188,7 +20828,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H39" t="s">
         <v>310</v>
@@ -20198,9 +20838,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>72</v>
-      </c>
       <c r="H40" t="s">
         <v>269</v>
       </c>
@@ -20674,186 +21311,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>446</v>
+        <v>568</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>205</v>
+        <v>569</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>206</v>
+        <v>446</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>502</v>
+        <v>225</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>558</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>150</v>
+        <v>558</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>386</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>151</v>
+        <v>514</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>152</v>
+        <v>386</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>447</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>552</v>
+        <v>447</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>166</v>
+        <v>552</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>171</v>
       </c>
     </row>

--- a/examples/plan-iteration/artifact/script/plan-iteration.xlsx
+++ b/examples/plan-iteration/artifact/script/plan-iteration.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15625" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16190" uniqueCount="570">
   <si>
     <t>description</t>
   </si>
@@ -1785,7 +1785,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="459" x14ac:knownFonts="1">
+  <fonts count="475" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4690,8 +4690,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="799">
+  <fills count="826">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9215,8 +9316,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="839">
+  <borders count="871">
     <border>
       <left/>
       <right/>
@@ -13306,6 +13560,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -17729,7 +18309,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="485">
+  <cellXfs count="501">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19154,52 +19734,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="442" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="774" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="774" fontId="443" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="444" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="777" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="818" fillId="777" fontId="445" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="780" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="780" fontId="446" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="783" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="783" fontId="447" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="448" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="786" fontId="449" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="450" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="451" fillId="789" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="789" fontId="451" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="452" fillId="780" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="780" fontId="452" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="792" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="792" fontId="453" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="454" fillId="792" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="792" fontId="454" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="455" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="783" fontId="455" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="456" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="795" fontId="456" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="783" fontId="457" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="458" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="801" borderId="846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="804" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="807" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="810" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="816" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="807" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="819" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="819" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="810" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="822" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="810" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/examples/plan-iteration/artifact/script/plan-iteration.xlsx
+++ b/examples/plan-iteration/artifact/script/plan-iteration.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16190" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16755" uniqueCount="570">
   <si>
     <t>description</t>
   </si>
@@ -1785,7 +1785,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="475" x14ac:knownFonts="1">
+  <fonts count="491" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4791,8 +4791,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="826">
+  <fills count="853">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9469,8 +9570,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="871">
+  <borders count="903">
     <border>
       <left/>
       <right/>
@@ -13560,6 +13814,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -18309,7 +18889,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="501">
+  <cellXfs count="517">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19782,52 +20362,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="458" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="801" borderId="846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="846" fillId="801" fontId="459" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="460" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="461" fillId="804" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="804" fontId="461" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="462" fillId="807" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="807" fontId="462" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="463" fillId="810" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="810" fontId="463" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="464" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="465" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="465" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="466" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="467" fillId="816" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="816" fontId="467" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="468" fillId="807" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="807" fontId="468" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="469" fillId="819" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="819" fontId="469" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="470" fillId="819" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="819" fontId="470" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="471" fillId="810" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="810" fontId="471" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="472" fillId="822" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="822" fontId="472" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="810" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="810" fontId="473" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="474" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="828" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="831" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="834" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="837" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="843" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="834" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="846" borderId="902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="846" borderId="902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="837" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="849" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="837" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
